--- a/core/src/main/resources/forms/ods/export_samples.xlsx
+++ b/core/src/main/resources/forms/ods/export_samples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35380" yWindow="1200" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="samples_export" sheetId="2" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Well</t>
   </si>
   <si>
-    <t>Adaptor</t>
-  </si>
-  <si>
     <t>DNA Conc.
 (ng/ul)</t>
   </si>
@@ -80,6 +77,9 @@
   <si>
     <t>QC Passed
 (Y/N)</t>
+  </si>
+  <si>
+    <t>Adaptor (Use Barcode Tag)</t>
   </si>
 </sst>
 </file>
@@ -124,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -374,36 +380,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,8 +410,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -741,7 +753,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -754,20 +766,20 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="A3" s="17" t="s">
-        <v>14</v>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -776,67 +788,67 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>16</v>
+      <c r="N4" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
